--- a/CP018/Default.xlsx
+++ b/CP018/Default.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
   <si>
     <t/>
   </si>
@@ -28,9 +28,6 @@
     <t>s_Resultado</t>
   </si>
   <si>
-    <t>e_WIC_ValidaCli</t>
-  </si>
-  <si>
     <t>SI</t>
   </si>
   <si>
@@ -58,15 +55,15 @@
     <t>Timer</t>
   </si>
   <si>
+    <t>Plan Acceso Datos S/18.9 :</t>
+  </si>
+  <si>
     <t>Operador Virtual</t>
   </si>
   <si>
     <t>e_Ambiente</t>
   </si>
   <si>
-    <t>123900000281611</t>
-  </si>
-  <si>
     <t>s_Nro_Orden</t>
   </si>
   <si>
@@ -106,6 +103,12 @@
     <t>e_ID_Dispositivo</t>
   </si>
   <si>
+    <t>123900000348279</t>
+  </si>
+  <si>
+    <t>8958080008100393237</t>
+  </si>
+  <si>
     <t>DATA LOGICA</t>
   </si>
   <si>
@@ -136,6 +139,9 @@
     <t>TSPE4128234R510201TARJETA USIM 4G 128K 2/3/4FF R5</t>
   </si>
   <si>
+    <t>123900000348261</t>
+  </si>
+  <si>
     <t>e_Tipo_Data</t>
   </si>
   <si>
@@ -148,13 +154,25 @@
     <t>e_Cuotas</t>
   </si>
   <si>
+    <t>123900000348287</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
     <t>Cambio de Equipo</t>
   </si>
   <si>
     <t>e_Entrega</t>
   </si>
   <si>
-    <t>8958080008100269452</t>
+    <t>8958080008100393245</t>
+  </si>
+  <si>
+    <t>8958080008100393252</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
   <si>
     <t>e_NombreMadre</t>
@@ -172,6 +190,9 @@
     <t>NO</t>
   </si>
   <si>
+    <t>Plan Abierto S/ 42.90 II :</t>
+  </si>
+  <si>
     <t>e_SerieSIM</t>
   </si>
   <si>
@@ -184,6 +205,9 @@
     <t>e_Financiamiento</t>
   </si>
   <si>
+    <t>CE</t>
+  </si>
+  <si>
     <t>CAEQ_EQUIPO</t>
   </si>
   <si>
@@ -211,7 +235,13 @@
     <t>e_ID_Servicio</t>
   </si>
   <si>
+    <t>CAEQ_EQUIPO Y SIM</t>
+  </si>
+  <si>
     <t>e_Equipo_Movil</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
   <si>
     <t>e_NumPorta</t>
@@ -400,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -411,11 +441,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -717,7 +754,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
@@ -730,13 +767,13 @@
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>18</v>
-      </c>
-      <c t="s">
-        <v>9</v>
-      </c>
-      <c t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c t="s">
+        <v>8</v>
+      </c>
+      <c t="s">
+        <v>32</v>
       </c>
     </row>
     <row>
@@ -765,7 +802,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
@@ -780,25 +817,25 @@
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s">
         <v>13</v>
       </c>
       <c t="s">
-        <v>19</v>
-      </c>
-      <c t="s">
-        <v>48</v>
+        <v>18</v>
+      </c>
+      <c t="s">
+        <v>54</v>
       </c>
       <c t="s">
         <v>1</v>
       </c>
       <c t="s">
-        <v>35</v>
-      </c>
-      <c t="s">
-        <v>11</v>
+        <v>36</v>
+      </c>
+      <c t="s">
+        <v>10</v>
       </c>
     </row>
     <row>
@@ -806,13 +843,13 @@
         <v>0</v>
       </c>
       <c s="1" t="s">
-        <v>40</v>
-      </c>
-      <c s="1" t="s">
-        <v>10</v>
-      </c>
-      <c s="1" t="s">
-        <v>10</v>
+        <v>42</v>
+      </c>
+      <c s="1" t="s">
+        <v>9</v>
+      </c>
+      <c s="1" t="s">
+        <v>9</v>
       </c>
       <c s="1" t="s">
         <v>0</v>
@@ -831,164 +868,296 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.30859375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.18359375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.9375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.79296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.41796875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.859375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.55078125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.02734375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="19.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9.42578125" style="2" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.30859375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.76953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.18359375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.3828125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.9375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.79296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.41796875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.859375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.55078125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.66796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.234375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.1484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="25" width="9.41796875" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
+        <v>69</v>
+      </c>
+      <c t="s">
+        <v>70</v>
+      </c>
+      <c t="s">
+        <v>58</v>
+      </c>
+      <c t="s">
+        <v>34</v>
+      </c>
+      <c t="s">
+        <v>72</v>
+      </c>
+      <c t="s">
+        <v>37</v>
+      </c>
+      <c t="s">
+        <v>63</v>
+      </c>
+      <c t="s">
+        <v>59</v>
+      </c>
+      <c t="s">
+        <v>60</v>
+      </c>
+      <c t="s">
+        <v>43</v>
+      </c>
+      <c t="s">
+        <v>20</v>
+      </c>
+      <c t="s">
+        <v>4</v>
+      </c>
+      <c t="s">
+        <v>47</v>
+      </c>
+      <c t="s">
+        <v>26</v>
+      </c>
+      <c t="s">
+        <v>57</v>
+      </c>
+      <c t="s">
+        <v>40</v>
+      </c>
+      <c t="s">
+        <v>21</v>
+      </c>
+      <c t="s">
+        <v>14</v>
+      </c>
+      <c t="s">
+        <v>64</v>
+      </c>
+      <c t="s">
+        <v>1</v>
+      </c>
+      <c t="s">
+        <v>5</v>
+      </c>
+      <c t="s">
+        <v>65</v>
+      </c>
+      <c t="s">
+        <v>50</v>
+      </c>
+      <c t="s">
+        <v>45</v>
+      </c>
+      <c t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row>
+      <c s="1" t="s">
+        <v>55</v>
+      </c>
+      <c s="7">
+        <v>600003270</v>
+      </c>
+      <c s="1" t="s">
+        <v>46</v>
+      </c>
+      <c s="1" t="s">
+        <v>71</v>
+      </c>
+      <c s="1" t="s">
+        <v>19</v>
+      </c>
+      <c s="1" t="s">
+        <v>38</v>
+      </c>
+      <c s="1" t="s">
+        <v>55</v>
+      </c>
+      <c s="1" t="s">
+        <v>3</v>
+      </c>
+      <c s="1" t="s">
         <v>2</v>
-      </c>
-      <c t="s">
-        <v>61</v>
-      </c>
-      <c t="s">
-        <v>62</v>
-      </c>
-      <c t="s">
-        <v>51</v>
-      </c>
-      <c t="s">
-        <v>33</v>
-      </c>
-      <c t="s">
-        <v>63</v>
-      </c>
-      <c t="s">
-        <v>36</v>
-      </c>
-      <c t="s">
-        <v>55</v>
-      </c>
-      <c t="s">
-        <v>52</v>
-      </c>
-      <c t="s">
-        <v>53</v>
-      </c>
-      <c t="s">
-        <v>41</v>
-      </c>
-      <c t="s">
-        <v>21</v>
-      </c>
-      <c t="s">
-        <v>5</v>
-      </c>
-      <c t="s">
-        <v>43</v>
-      </c>
-      <c t="s">
-        <v>27</v>
-      </c>
-      <c t="s">
-        <v>50</v>
-      </c>
-      <c t="s">
-        <v>38</v>
-      </c>
-      <c t="s">
-        <v>22</v>
-      </c>
-      <c t="s">
-        <v>15</v>
-      </c>
-      <c t="s">
-        <v>56</v>
-      </c>
-      <c t="s">
-        <v>1</v>
-      </c>
-      <c t="s">
-        <v>6</v>
-      </c>
-      <c t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row>
-      <c s="1" t="s">
-        <v>3</v>
-      </c>
-      <c s="1" t="s">
-        <v>49</v>
-      </c>
-      <c s="1">
-        <v>650009290</v>
-      </c>
-      <c s="1" t="s">
-        <v>42</v>
-      </c>
-      <c s="1" t="s">
-        <v>54</v>
-      </c>
-      <c s="1" t="s">
-        <v>20</v>
-      </c>
-      <c s="1" t="s">
-        <v>37</v>
-      </c>
-      <c s="1" t="s">
-        <v>49</v>
-      </c>
-      <c s="1" t="s">
-        <v>4</v>
-      </c>
-      <c s="1" t="s">
-        <v>3</v>
       </c>
       <c s="1">
         <v>12</v>
       </c>
       <c s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c s="1">
         <v>12</v>
       </c>
       <c s="1" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c s="5" t="s">
+        <v>39</v>
       </c>
       <c s="4" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c s="1" t="s">
+        <v>29</v>
+      </c>
+      <c s="1" t="s">
+        <v>15</v>
+      </c>
+      <c s="1"/>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="3"/>
+    </row>
+    <row>
+      <c s="1" t="s">
+        <v>55</v>
+      </c>
+      <c s="7">
+        <v>600003271</v>
+      </c>
+      <c s="1" t="s">
+        <v>46</v>
+      </c>
+      <c s="1" t="s">
+        <v>71</v>
+      </c>
+      <c s="1" t="s">
+        <v>19</v>
+      </c>
+      <c s="1" t="s">
+        <v>38</v>
+      </c>
+      <c s="1" t="s">
+        <v>2</v>
+      </c>
+      <c s="1" t="s">
+        <v>56</v>
+      </c>
+      <c s="1" t="s">
+        <v>2</v>
+      </c>
+      <c s="1">
+        <v>12</v>
+      </c>
+      <c s="1" t="s">
+        <v>55</v>
+      </c>
+      <c s="1">
+        <v>12</v>
+      </c>
+      <c s="1" t="s">
+        <v>25</v>
+      </c>
+      <c s="5" t="s">
+        <v>27</v>
+      </c>
+      <c s="4" t="s">
+        <v>48</v>
+      </c>
+      <c s="1" t="s">
+        <v>29</v>
+      </c>
+      <c s="1" t="s">
+        <v>15</v>
+      </c>
+      <c s="1"/>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="3"/>
+    </row>
+    <row>
+      <c s="1" t="s">
+        <v>55</v>
+      </c>
+      <c s="7">
+        <v>650009176</v>
+      </c>
+      <c s="1" t="s">
+        <v>46</v>
+      </c>
+      <c s="1" t="s">
+        <v>62</v>
+      </c>
+      <c s="1" t="s">
+        <v>19</v>
+      </c>
+      <c s="1" t="s">
+        <v>38</v>
+      </c>
+      <c s="1" t="s">
+        <v>2</v>
+      </c>
+      <c s="1" t="s">
+        <v>11</v>
+      </c>
+      <c s="1" t="s">
+        <v>2</v>
+      </c>
+      <c s="1">
+        <v>12</v>
+      </c>
+      <c s="1" t="s">
+        <v>55</v>
+      </c>
+      <c s="1">
+        <v>12</v>
+      </c>
+      <c s="1" t="s">
+        <v>25</v>
       </c>
       <c s="5" t="s">
         <v>44</v>
       </c>
-      <c s="1" t="s">
-        <v>28</v>
-      </c>
-      <c s="1" t="s">
-        <v>16</v>
+      <c s="4" t="s">
+        <v>49</v>
+      </c>
+      <c s="1" t="s">
+        <v>29</v>
+      </c>
+      <c s="1" t="s">
+        <v>15</v>
       </c>
       <c s="1"/>
       <c s="1" t="s">
@@ -997,6 +1166,9 @@
       <c s="1" t="s">
         <v>0</v>
       </c>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
       <c s="1"/>
       <c s="3"/>
     </row>
@@ -1015,7 +1187,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
@@ -1029,30 +1201,30 @@
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>58</v>
-      </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
-        <v>45</v>
-      </c>
-      <c t="s">
-        <v>23</v>
+        <v>66</v>
+      </c>
+      <c t="s">
+        <v>30</v>
+      </c>
+      <c t="s">
+        <v>51</v>
+      </c>
+      <c t="s">
+        <v>22</v>
       </c>
     </row>
     <row>
       <c s="1" t="s">
-        <v>34</v>
-      </c>
-      <c s="1" t="s">
-        <v>39</v>
-      </c>
-      <c s="1" t="s">
-        <v>59</v>
+        <v>35</v>
+      </c>
+      <c s="1" t="s">
+        <v>41</v>
+      </c>
+      <c s="1" t="s">
+        <v>67</v>
       </c>
       <c s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1070,7 +1242,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
@@ -1084,27 +1256,27 @@
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>47</v>
-      </c>
-      <c t="s">
-        <v>64</v>
-      </c>
-      <c t="s">
-        <v>30</v>
-      </c>
-      <c t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c t="s">
+        <v>74</v>
+      </c>
+      <c t="s">
+        <v>31</v>
+      </c>
+      <c t="s">
+        <v>68</v>
       </c>
     </row>
     <row>
       <c s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c s="1">
         <v>920951680</v>
       </c>
       <c s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c s="3" t="s">
         <v>12</v>
@@ -1125,7 +1297,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
@@ -1139,24 +1311,24 @@
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
+        <v>23</v>
+      </c>
+      <c t="s">
+        <v>7</v>
+      </c>
+      <c t="s">
         <v>24</v>
       </c>
       <c t="s">
-        <v>8</v>
-      </c>
-      <c t="s">
-        <v>25</v>
-      </c>
-      <c t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row>
       <c s="1" t="s">
-        <v>34</v>
-      </c>
-      <c s="1">
-        <v>76694589</v>
+        <v>61</v>
+      </c>
+      <c s="6">
+        <v>41414141</v>
       </c>
       <c s="1"/>
       <c s="3"/>
@@ -1181,7 +1353,7 @@
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row>
